--- a/assets/template_siswa.xlsx
+++ b/assets/template_siswa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\apdate_v2\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkrzmail\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645FD8AD-DF4A-4382-89D9-FB162B82BAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9992C19E-8C0D-456D-A5E1-D6E1C0BACAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DBB2CD0-9512-4F4E-A4E1-BC74892CCADA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0DBB2CD0-9512-4F4E-A4E1-BC74892CCADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Muhammad Ichsan Fathurrochman</t>
   </si>
@@ -90,42 +81,18 @@
     <t>pekerjaan_orangtua</t>
   </si>
   <si>
-    <t>SMPN 1 Jakarta</t>
-  </si>
-  <si>
     <t>Jl. Merdeka No. 1, Jakarta</t>
   </si>
   <si>
-    <t>Ahmad Budi</t>
-  </si>
-  <si>
     <t>Ayah</t>
   </si>
   <si>
-    <t>ahmad.budi@email.com</t>
-  </si>
-  <si>
     <t>Wiraswasta</t>
   </si>
   <si>
-    <t>Annisa Putri</t>
-  </si>
-  <si>
-    <t>Bandung</t>
-  </si>
-  <si>
-    <t>Kristen</t>
-  </si>
-  <si>
-    <t>SMPN 2 Bandung</t>
-  </si>
-  <si>
     <t>Jl. Asia Afrika No. 10, Bandung</t>
   </si>
   <si>
-    <t>Maria Lestari</t>
-  </si>
-  <si>
     <t>Ibu</t>
   </si>
   <si>
@@ -135,43 +102,43 @@
     <t>Pegawai Negeri</t>
   </si>
   <si>
-    <t>Made Sanjaya</t>
-  </si>
-  <si>
-    <t>Denpasar</t>
-  </si>
-  <si>
-    <t>Hindu</t>
-  </si>
-  <si>
-    <t>SMPN 3 Denpasar</t>
-  </si>
-  <si>
-    <t>Jl. Gatot Subroto No. 5, Denpasar</t>
-  </si>
-  <si>
-    <t>I Ketut Wijaya</t>
-  </si>
-  <si>
-    <t>ketut.wijaya@email.com</t>
-  </si>
-  <si>
-    <t>Seniman</t>
-  </si>
-  <si>
-    <t>Budi Ahmad Jaya</t>
-  </si>
-  <si>
-    <t>budi.aj@email.com</t>
-  </si>
-  <si>
-    <t>Mariana</t>
-  </si>
-  <si>
-    <t>Indah</t>
-  </si>
-  <si>
     <t>siswa_baru_tingkat</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
+  </si>
+  <si>
+    <t>status_keluarga</t>
+  </si>
+  <si>
+    <t>anak_ke</t>
+  </si>
+  <si>
+    <t>tanggal_diterima</t>
+  </si>
+  <si>
+    <t>kelas_diterima</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
+  </si>
+  <si>
+    <t>Anak Kandung</t>
+  </si>
+  <si>
+    <t>SDN 1 Jakarta</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>Mohan Hazian</t>
+  </si>
+  <si>
+    <t>mohanhazian@gmail.com</t>
+  </si>
+  <si>
+    <t>Alya Putri</t>
   </si>
 </sst>
 </file>
@@ -257,17 +224,23 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -583,312 +556,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9067D0B-209A-42C7-8D94-AA7FFDBD9207}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.1796875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>45</v>
+      <c r="AA1" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>1220014</v>
-      </c>
-      <c r="B2" s="5">
-        <v>25001</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>21120839</v>
+      </c>
+      <c r="B2" s="3">
+        <v>191011401</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6">
-        <v>36494</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7">
+        <v>36015</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="7">
+        <v>41243</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="3">
+        <v>81234567890</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5">
-        <v>81234567890</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="O2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="3">
+        <v>81122334455</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="U2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="5">
-        <v>81122334455</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="X2" s="3">
+        <v>87788990011</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="5">
-        <v>87788990011</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2">
+      <c r="Z2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>1220015</v>
-      </c>
-      <c r="B3" s="5">
-        <v>25002</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6">
-        <v>36661</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="5">
-        <v>87654321098</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="5">
-        <v>81122334455</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="5">
-        <v>87788990011</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>1220016</v>
-      </c>
-      <c r="B4" s="5">
-        <v>25003</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="6">
-        <v>36392</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="5">
-        <v>85566778899</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="5">
-        <v>85511223344</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="5">
-        <v>87788990011</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4">
-        <v>8</v>
-      </c>
+    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{D9E675C6-1EFC-471A-AE1F-07059B2A96CC}"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{099843BF-2FC3-4348-82E0-48A08ADCA98A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
